--- a/biology/Botanique/Cladium_mariscus_jamaicense/Cladium_mariscus_jamaicense.xlsx
+++ b/biology/Botanique/Cladium_mariscus_jamaicense/Cladium_mariscus_jamaicense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-espèce Cladium mariscus subsp. jamaicense du Cladium mariscus (ou Marisque) est considérée par certains auteurs comme une espèce séparée Cladium jamaicense.
 On la trouve dans les zones tempérées et tropicales du continent américain : Costa Rica, Guatemala, Honduras, Mexique, Nicaragua, Panamá, Colombie, Équateur et Pérou.
@@ -514,9 +526,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cladium jamaicense Crantz[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cladium jamaicense Crantz</t>
         </is>
       </c>
     </row>
